--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.386</v>
+        <v>-1.871</v>
       </c>
       <c r="D4" t="n">
-        <v>-10761.54</v>
+        <v>-9947.370000000001</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.035</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.033</v>
+        <v>0.003</v>
       </c>
       <c r="D5" t="n">
-        <v>-243.48</v>
+        <v>-91.43000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.625</v>
       </c>
       <c r="C6" t="n">
-        <v>7.591</v>
+        <v>7.682</v>
       </c>
       <c r="D6" t="n">
-        <v>141.6</v>
+        <v>192.65</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.184</v>
       </c>
       <c r="C7" t="n">
-        <v>0.486</v>
+        <v>0.531</v>
       </c>
       <c r="D7" t="n">
-        <v>145.45</v>
+        <v>188.59</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>17.887</v>
+        <v>18.099</v>
       </c>
       <c r="D8" t="n">
-        <v>62.92</v>
+        <v>64.84999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.217</v>
       </c>
       <c r="C9" t="n">
-        <v>7.018</v>
+        <v>7.25</v>
       </c>
       <c r="D9" t="n">
-        <v>218.86</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>11.641</v>
       </c>
       <c r="C10" t="n">
-        <v>75.054</v>
+        <v>70.795</v>
       </c>
       <c r="D10" t="n">
-        <v>315.97</v>
+        <v>508.15</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.474</v>
+        <v>0.546</v>
       </c>
       <c r="D11" t="n">
-        <v>664.52</v>
+        <v>1113.33</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.447</v>
+        <v>-4.988</v>
       </c>
       <c r="D12" t="n">
-        <v>4895.65</v>
+        <v>-33353.33</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.412</v>
       </c>
       <c r="C13" t="n">
-        <v>8.663</v>
+        <v>8.414</v>
       </c>
       <c r="D13" t="n">
-        <v>103.93</v>
+        <v>146.6</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.317992001771927</v>
+        <v>3.10863619191306</v>
       </c>
       <c r="C4" t="n">
-        <v>4.888042032718658</v>
+        <v>3.391792757170541</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.08</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1.342751831794569</v>
+        <v>0.5202949593277648</v>
       </c>
       <c r="F4" t="n">
-        <v>1.403636799802549</v>
+        <v>0.4536606471736785</v>
       </c>
       <c r="G4" t="n">
-        <v>4.53</v>
+        <v>-12.81</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.220815826508165</v>
+        <v>2.798805325954741</v>
       </c>
       <c r="C6" t="n">
-        <v>3.208633176687892</v>
+        <v>3.08392740302801</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.38</v>
+        <v>10.19</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8412063850314923</v>
+        <v>0.4858722461934443</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7270986804985941</v>
+        <v>0.786526331468306</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.56</v>
+        <v>61.88</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.019</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.871</v>
+        <v>-1.65</v>
       </c>
       <c r="D4" t="n">
-        <v>-9947.370000000001</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.035</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003</v>
+        <v>-0.011</v>
       </c>
       <c r="D5" t="n">
-        <v>-91.43000000000001</v>
+        <v>-157.89</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.625</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>7.682</v>
+        <v>7.091</v>
       </c>
       <c r="D6" t="n">
-        <v>192.65</v>
+        <v>157.29</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.184</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.531</v>
+        <v>0.486</v>
       </c>
       <c r="D7" t="n">
-        <v>188.59</v>
+        <v>132.54</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>18.099</v>
+        <v>15.941</v>
       </c>
       <c r="D8" t="n">
-        <v>64.84999999999999</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.217</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>7.25</v>
+        <v>6.821</v>
       </c>
       <c r="D9" t="n">
-        <v>227.02</v>
+        <v>157.3</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.641</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>70.795</v>
+        <v>62.233</v>
       </c>
       <c r="D10" t="n">
-        <v>508.15</v>
+        <v>425.75</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.546</v>
+        <v>0.448</v>
       </c>
       <c r="D11" t="n">
-        <v>1113.33</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.015</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.988</v>
+        <v>-4.264</v>
       </c>
       <c r="D12" t="n">
-        <v>-33353.33</v>
+        <v>426300</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.412</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>8.414</v>
+        <v>7.889</v>
       </c>
       <c r="D13" t="n">
-        <v>146.6</v>
+        <v>129.26</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.10863619191306</v>
+        <v>3.309580944833301</v>
       </c>
       <c r="C4" t="n">
-        <v>3.391792757170541</v>
+        <v>3.475932958580199</v>
       </c>
       <c r="D4" t="n">
-        <v>9.109999999999999</v>
+        <v>5.03</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5202949593277648</v>
+        <v>0.4977069291058351</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4536606471736785</v>
+        <v>0.9039660527985125</v>
       </c>
       <c r="G4" t="n">
-        <v>-12.81</v>
+        <v>81.63</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.798805325954741</v>
+        <v>3.301863242389866</v>
       </c>
       <c r="C6" t="n">
-        <v>3.08392740302801</v>
+        <v>3.266884295153714</v>
       </c>
       <c r="D6" t="n">
-        <v>10.19</v>
+        <v>-1.06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4858722461934443</v>
+        <v>0.3846798203182489</v>
       </c>
       <c r="F6" t="n">
-        <v>0.786526331468306</v>
+        <v>0.589157950223559</v>
       </c>
       <c r="G6" t="n">
-        <v>61.88</v>
+        <v>53.16</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/0_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
